--- a/daten/bibeval/xlsx/bibeval_areas_categories.xlsx
+++ b/daten/bibeval/xlsx/bibeval_areas_categories.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninop\Documents\Schule\FS21\PK1\Projekt\Entwicklung\fhgr_pk1\data\raw\cheval_daten_tools_csv\cheval_daten_tools\bibeval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellid\vue-pk1\fhgr_pk1-1\daten\bibeval\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F0C737-5BF7-4227-8F26-F9FE1A196133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D6F6DE-24FA-4E93-8BE9-CB0B708E7A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{77CBFA99-8F56-4BD1-A878-226E8128AD40}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77CBFA99-8F56-4BD1-A878-226E8128AD40}"/>
   </bookViews>
   <sheets>
-    <sheet name="bibeval_tx_siisurveytool_areas_" sheetId="2" r:id="rId1"/>
+    <sheet name="bibeval_areas_categories" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">bibeval_tx_siisurveytool_areas_!$A$1:$C$114</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">bibeval_areas_categories!$A$1:$C$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -130,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FF7ECBA-CF92-42B1-AA84-910243EEEC4C}" name="bibeval_tx_siisurveytool_areas_categories" displayName="bibeval_tx_siisurveytool_areas_categories" ref="A1:C114" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C114" xr:uid="{67D3A160-EA87-463D-A439-2A57FED20DB6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FF7ECBA-CF92-42B1-AA84-910243EEEC4C}" name="bibeval_tx_siisurveytool_areas_categories" displayName="bibeval_tx_siisurveytool_areas_categories" ref="A1:C110" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C110" xr:uid="{67D3A160-EA87-463D-A439-2A57FED20DB6}"/>
   <tableColumns count="3">
     <tableColumn id="8" xr3:uid="{85705712-CDAA-4B47-8E4D-4ADCBB3794D1}" uniqueName="8" name="hidden" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{F305EFD9-4F80-43B9-918B-D75E8430CB23}" uniqueName="9" name="area_id" queryTableFieldId="9"/>
@@ -438,20 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C370A8-09F9-423A-905F-6C31E14B21B8}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.05859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.05859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>0</v>
       </c>
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>0</v>
       </c>
@@ -506,7 +506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>0</v>
       </c>
@@ -561,7 +561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>0</v>
       </c>
@@ -583,7 +583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>0</v>
       </c>
@@ -616,7 +616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>0</v>
       </c>
@@ -638,7 +638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>0</v>
       </c>
@@ -693,7 +693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>0</v>
       </c>
@@ -726,7 +726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>0</v>
       </c>
@@ -737,7 +737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>0</v>
       </c>
@@ -759,7 +759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>0</v>
       </c>
@@ -770,7 +770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>0</v>
       </c>
@@ -814,7 +814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>0</v>
       </c>
@@ -825,7 +825,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>0</v>
       </c>
@@ -836,7 +836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>0</v>
       </c>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>0</v>
       </c>
@@ -869,7 +869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>0</v>
       </c>
@@ -891,7 +891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>0</v>
       </c>
@@ -902,7 +902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>0</v>
       </c>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>0</v>
       </c>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>0</v>
       </c>
@@ -935,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>0</v>
       </c>
@@ -946,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>0</v>
       </c>
@@ -957,7 +957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>0</v>
       </c>
@@ -979,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>0</v>
       </c>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>0</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>0</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>0</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>0</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>0</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>0</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>0</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>0</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>0</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>0</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>0</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>0</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>0</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>0</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>0</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>0</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>0</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>0</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>0</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>0</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>0</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>0</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>0</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>0</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>0</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>0</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>0</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>0</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>0</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>0</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>0</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>0</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>0</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>0</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>0</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>0</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>0</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>0</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>0</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>0</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>0</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>0</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>0</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>0</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>0</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>0</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>0</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>0</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>0</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>0</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>0</v>
       </c>
@@ -1659,50 +1659,6 @@
       </c>
       <c r="C110">
         <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>0</v>
-      </c>
-      <c r="B111">
-        <v>4</v>
-      </c>
-      <c r="C111">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>0</v>
-      </c>
-      <c r="B112">
-        <v>4</v>
-      </c>
-      <c r="C112">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>4</v>
-      </c>
-      <c r="C113">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>4</v>
-      </c>
-      <c r="C114">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1675,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
